--- a/biology/Neurosciences/Emiliana_Borrelli/Emiliana_Borrelli.xlsx
+++ b/biology/Neurosciences/Emiliana_Borrelli/Emiliana_Borrelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emiliana Borrelli, née à Naples[1], est une neurobiologiste[2] italienne travaillant pour l'Inserm. Elle est récipiendaire du prix Recherche 2002 de l'Inserm[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emiliana Borrelli, née à Naples, est une neurobiologiste italienne travaillant pour l'Inserm. Elle est récipiendaire du prix Recherche 2002 de l'Inserm.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1979, Emiliana Borrelli obtient son doctorat de l'université de Naples[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1979, Emiliana Borrelli obtient son doctorat de l'université de Naples. 
 Elle devient[Quand ?] professeur à l'université de Californie à Irvine (UCI).
-En 2008, elle fonde et dirige l'unité mixte Inserm 1233/UCI qui possède la particularité unique d'être officiellement localisée à Irvine en Californie, direction à laquelle lui succède Paolo Sassone-Corsi[5].
+En 2008, elle fonde et dirige l'unité mixte Inserm 1233/UCI qui possède la particularité unique d'être officiellement localisée à Irvine en Californie, direction à laquelle lui succède Paolo Sassone-Corsi.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix de la Fondation pour la recherche médicale (2001)
 Prix Mergier-Bourdeix de l’Académie des Sciences Françaises (2001)
 Prix Recherche de l'Inserm (2002)
 Prix Umesono de l'Institut Salk (2014)
-Chevalier de la Légion d'honneur (2017)[6]
+Chevalier de la Légion d'honneur (2017)
 Prix Camillo-Golgi de Association européenne pour l'étude du diabète (en) (2017)
 Prix Athalie Clarke (en) (2018)</t>
         </is>
